--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H2">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I2">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J2">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N2">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q2">
-        <v>3121.722823128337</v>
+        <v>10793.72451880598</v>
       </c>
       <c r="R2">
-        <v>28095.50540815504</v>
+        <v>97143.52066925383</v>
       </c>
       <c r="S2">
-        <v>0.3854275900331257</v>
+        <v>0.5596062273747606</v>
       </c>
       <c r="T2">
-        <v>0.3854275900331256</v>
+        <v>0.5596062273747605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H3">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I3">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J3">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q3">
-        <v>10.56349337453356</v>
+        <v>25.33471599326156</v>
       </c>
       <c r="R3">
-        <v>95.07144037080199</v>
+        <v>228.012443939354</v>
       </c>
       <c r="S3">
-        <v>0.001304235521332182</v>
+        <v>0.001313491447173644</v>
       </c>
       <c r="T3">
-        <v>0.001304235521332182</v>
+        <v>0.001313491447173644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H4">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I4">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J4">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N4">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q4">
-        <v>18.36331217056933</v>
+        <v>80.19857927140201</v>
       </c>
       <c r="R4">
-        <v>165.269809535124</v>
+        <v>721.7872134426181</v>
       </c>
       <c r="S4">
-        <v>0.002267250347305268</v>
+        <v>0.004157936800099991</v>
       </c>
       <c r="T4">
-        <v>0.002267250347305267</v>
+        <v>0.004157936800099991</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.44575933333333</v>
+        <v>58.62893533333334</v>
       </c>
       <c r="H5">
-        <v>73.337278</v>
+        <v>175.886806</v>
       </c>
       <c r="I5">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="J5">
-        <v>0.4034052273345712</v>
+        <v>0.5702456571409142</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N5">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q5">
-        <v>116.6808315859667</v>
+        <v>99.68077905288423</v>
       </c>
       <c r="R5">
-        <v>1050.1274842737</v>
+        <v>897.1270114759581</v>
       </c>
       <c r="S5">
-        <v>0.01440615143280813</v>
+        <v>0.00516800151888</v>
       </c>
       <c r="T5">
-        <v>0.01440615143280813</v>
+        <v>0.005168001518879999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>42.86704</v>
       </c>
       <c r="I6">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J6">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N6">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q6">
-        <v>1824.706626389316</v>
+        <v>2630.640871928942</v>
       </c>
       <c r="R6">
-        <v>16422.35963750384</v>
+        <v>23675.76784736048</v>
       </c>
       <c r="S6">
-        <v>0.2252897894445114</v>
+        <v>0.1363869358860434</v>
       </c>
       <c r="T6">
-        <v>0.2252897894445114</v>
+        <v>0.1363869358860434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>42.86704</v>
       </c>
       <c r="I7">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J7">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.296359</v>
       </c>
       <c r="O7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q7">
         <v>6.174563678595557</v>
@@ -883,10 +883,10 @@
         <v>55.57107310736001</v>
       </c>
       <c r="S7">
-        <v>0.0007623505778652912</v>
+        <v>0.0003201234457896203</v>
       </c>
       <c r="T7">
-        <v>0.0007623505778652911</v>
+        <v>0.0003201234457896204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>42.86704</v>
       </c>
       <c r="I8">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J8">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N8">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q8">
-        <v>10.73370676981333</v>
+        <v>19.54595562768</v>
       </c>
       <c r="R8">
-        <v>96.60336092832</v>
+        <v>175.91360064912</v>
       </c>
       <c r="S8">
-        <v>0.001325251140735668</v>
+        <v>0.001013370173584017</v>
       </c>
       <c r="T8">
-        <v>0.001325251140735668</v>
+        <v>0.001013370173584017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>42.86704</v>
       </c>
       <c r="I9">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218762</v>
       </c>
       <c r="J9">
-        <v>0.2357980618855278</v>
+        <v>0.1389799721218763</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N9">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q9">
-        <v>68.20217509066669</v>
+        <v>24.29414712830222</v>
       </c>
       <c r="R9">
-        <v>613.8195758160001</v>
+        <v>218.64732415472</v>
       </c>
       <c r="S9">
-        <v>0.008420670722415462</v>
+        <v>0.001259542616459188</v>
       </c>
       <c r="T9">
-        <v>0.008420670722415461</v>
+        <v>0.001259542616459188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.38374133333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H10">
-        <v>64.151224</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I10">
-        <v>0.3528756426099016</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J10">
-        <v>0.3528756426099016</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N10">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q10">
-        <v>2730.703205161478</v>
+        <v>5021.425598359731</v>
       </c>
       <c r="R10">
-        <v>24576.3288464533</v>
+        <v>45192.83038523758</v>
       </c>
       <c r="S10">
-        <v>0.3371498416398166</v>
+        <v>0.2603384059177367</v>
       </c>
       <c r="T10">
-        <v>0.3371498416398166</v>
+        <v>0.2603384059177367</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.38374133333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H11">
-        <v>64.151224</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I11">
-        <v>0.3528756426099016</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J11">
-        <v>0.3528756426099016</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.296359</v>
       </c>
       <c r="O11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q11">
-        <v>9.240335177046223</v>
+        <v>11.78614399451156</v>
       </c>
       <c r="R11">
-        <v>83.163016593416</v>
+        <v>106.075295950604</v>
       </c>
       <c r="S11">
-        <v>0.001140870064440319</v>
+        <v>0.0006110587281130572</v>
       </c>
       <c r="T11">
-        <v>0.001140870064440319</v>
+        <v>0.0006110587281130572</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.38374133333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H12">
-        <v>64.151224</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I12">
-        <v>0.3528756426099016</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J12">
-        <v>0.3528756426099016</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N12">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q12">
-        <v>16.06316711722133</v>
+        <v>37.309753292652</v>
       </c>
       <c r="R12">
-        <v>144.568504054992</v>
+        <v>335.7877796338681</v>
       </c>
       <c r="S12">
-        <v>0.001983259930837057</v>
+        <v>0.001934343446324465</v>
       </c>
       <c r="T12">
-        <v>0.001983259930837057</v>
+        <v>0.001934343446324465</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.38374133333333</v>
+        <v>27.27518533333334</v>
       </c>
       <c r="H13">
-        <v>64.151224</v>
+        <v>81.82555600000001</v>
       </c>
       <c r="I13">
-        <v>0.3528756426099016</v>
+        <v>0.265288050953297</v>
       </c>
       <c r="J13">
-        <v>0.3528756426099016</v>
+        <v>0.2652880509532971</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N13">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q13">
-        <v>102.0656665710667</v>
+        <v>46.37320646163423</v>
       </c>
       <c r="R13">
-        <v>918.5909991396002</v>
+        <v>417.358858154708</v>
       </c>
       <c r="S13">
-        <v>0.01260167097480759</v>
+        <v>0.002404242861122854</v>
       </c>
       <c r="T13">
-        <v>0.01260167097480759</v>
+        <v>0.002404242861122854</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.480005</v>
+        <v>2.620337</v>
       </c>
       <c r="H14">
-        <v>1.440015</v>
+        <v>7.861011</v>
       </c>
       <c r="I14">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J14">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N14">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O14">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P14">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q14">
-        <v>61.29662585986833</v>
+        <v>482.4101881371563</v>
       </c>
       <c r="R14">
-        <v>551.6696327388149</v>
+        <v>4341.691693234407</v>
       </c>
       <c r="S14">
-        <v>0.007568068057578458</v>
+        <v>0.02501080558061583</v>
       </c>
       <c r="T14">
-        <v>0.007568068057578458</v>
+        <v>0.02501080558061583</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.480005</v>
+        <v>2.620337</v>
       </c>
       <c r="H15">
-        <v>1.440015</v>
+        <v>7.861011</v>
       </c>
       <c r="I15">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J15">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.296359</v>
       </c>
       <c r="O15">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P15">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q15">
-        <v>0.2074196005983333</v>
+        <v>1.132299150994333</v>
       </c>
       <c r="R15">
-        <v>1.866776405385</v>
+        <v>10.190692358949</v>
       </c>
       <c r="S15">
-        <v>2.560933219052883E-05</v>
+        <v>5.870463481290308E-05</v>
       </c>
       <c r="T15">
-        <v>2.560933219052883E-05</v>
+        <v>5.870463481290308E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.480005</v>
+        <v>2.620337</v>
       </c>
       <c r="H16">
-        <v>1.440015</v>
+        <v>7.861011</v>
       </c>
       <c r="I16">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J16">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N16">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O16">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P16">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q16">
-        <v>0.36057303593</v>
+        <v>3.584361602637</v>
       </c>
       <c r="R16">
-        <v>3.24515732337</v>
+        <v>32.259254423733</v>
       </c>
       <c r="S16">
-        <v>4.451862133299786E-05</v>
+        <v>0.0001858330801850528</v>
       </c>
       <c r="T16">
-        <v>4.451862133299786E-05</v>
+        <v>0.0001858330801850528</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.480005</v>
+        <v>2.620337</v>
       </c>
       <c r="H17">
-        <v>1.440015</v>
+        <v>7.861011</v>
       </c>
       <c r="I17">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="J17">
-        <v>0.007921068169999336</v>
+        <v>0.02548631978391236</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N17">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O17">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P17">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q17">
-        <v>2.29108786525</v>
+        <v>4.455090853280333</v>
       </c>
       <c r="R17">
-        <v>20.61979078725</v>
+        <v>40.09581767952299</v>
       </c>
       <c r="S17">
-        <v>0.0002828721588973509</v>
+        <v>0.000230976488298573</v>
       </c>
       <c r="T17">
-        <v>0.0002828721588973509</v>
+        <v>0.000230976488298573</v>
       </c>
     </row>
   </sheetData>
